--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-99\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sathiyaraj\Studies\Reference_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>CM</t>
   </si>
@@ -90,6 +90,54 @@
   </si>
   <si>
     <t>What is row level locking</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>PHP FPM</t>
+  </si>
+  <si>
+    <t>Array Map, Array Reduce, Array Filter</t>
+  </si>
+  <si>
+    <t>Abstract, Interface</t>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t>Database Index</t>
+  </si>
+  <si>
+    <t>Database Trigger</t>
+  </si>
+  <si>
+    <t>Database Transaction</t>
+  </si>
+  <si>
+    <t>Optimistic Locks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC </t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>ORM (Pros and Cons)</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Linux command to write content intofile</t>
+  </si>
+  <si>
+    <t>Explain : chmod 754 -R /apps/application</t>
+  </si>
+  <si>
+    <t>Explain : chmod g-r readme.txt</t>
   </si>
 </sst>
 </file>
@@ -424,23 +472,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="37" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,13 +505,16 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -478,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -486,37 +538,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -531,6 +583,59 @@
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
